--- a/data/excel/PreApprovalHotel.xlsx
+++ b/data/excel/PreApprovalHotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E57902-7D87-4BDE-8D65-E2A3317262D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9179BBDC-48A3-4A12-8795-99E6186D43C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
   </bookViews>
   <sheets>
     <sheet name="PreApprovalQueueHotel" sheetId="15" r:id="rId1"/>
@@ -136,14 +136,14 @@
     <t>2015</t>
   </si>
   <si>
-    <t>Admin@123</t>
+    <t>Xchange@720</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +171,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -230,6 +243,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66FDB5-D227-49D9-A0DE-033D9E8EB139}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +572,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -591,7 +606,7 @@
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -638,7 +653,7 @@
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="2">
@@ -691,7 +706,7 @@
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2">
@@ -744,7 +759,7 @@
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="2">
@@ -793,12 +808,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{1BD1A15D-986C-406F-B58C-F0C94DCF07A6}"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="Admin@123" xr:uid="{655F2F8C-AAA6-4B23-A466-E23A305FBF18}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{6B284417-4EC9-4608-BC08-E0F10803B751}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{365BEBBA-9254-40AF-83E5-F3A311E5E6AF}"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="Xchange@720" xr:uid="{AB1A58D2-91EF-4699-ABE7-E4151C1D1760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -806,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FAF82A-9382-4CAC-A3C7-39C1DBDB2FE2}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +856,7 @@
       <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="6" t="s">
